--- a/Generic.xlsx
+++ b/Generic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2258740-9A80-4501-A0F1-10A9F9F8A629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E61F129-BAF3-453B-AE8B-49A7C882C205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Generic.xlsx
+++ b/Generic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E61F129-BAF3-453B-AE8B-49A7C882C205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A22B7D1-C05C-4A3D-B6AB-AECFBF439732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
